--- a/results/Cs137/Cs137_R_30_cm_Nr_2000000000_ISO_model_det1_det2 - Unfolded Fluence Spectrum.xlsx
+++ b/results/Cs137/Cs137_R_30_cm_Nr_2000000000_ISO_model_det1_det2 - Unfolded Fluence Spectrum.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -511,40 +511,40 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>22.29280551904881</v>
+        <v>19.12075701903682</v>
       </c>
       <c r="D2" t="n">
         <v>0.006944391349456487</v>
       </c>
       <c r="E2" t="n">
-        <v>0.02111450030030732</v>
+        <v>0.01982943797740053</v>
       </c>
       <c r="F2" t="n">
-        <v>11.62304279719339</v>
+        <v>9.544208811213233</v>
       </c>
       <c r="G2" t="n">
-        <v>11.31776361063898</v>
+        <v>9.155795358156086</v>
       </c>
       <c r="H2" t="n">
-        <v>11.92565011069451</v>
+        <v>9.924786459079462</v>
       </c>
       <c r="I2" t="n">
-        <v>0.001958411955639157</v>
+        <v>0.002215635735467799</v>
       </c>
       <c r="J2" t="n">
-        <v>0.00172649761678599</v>
+        <v>0.001967128511985355</v>
       </c>
       <c r="K2" t="n">
-        <v>0.00224532548626124</v>
+        <v>0.002520713659240183</v>
       </c>
       <c r="L2" t="n">
-        <v>0.014074661502618</v>
+        <v>0.008320486266175504</v>
       </c>
       <c r="M2" t="n">
-        <v>0.009302549838341384</v>
+        <v>0.008095330454988101</v>
       </c>
       <c r="N2" t="n">
-        <v>0.01977022373992972</v>
+        <v>0.008549672873660905</v>
       </c>
     </row>
     <row r="3">
@@ -557,40 +557,86 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.05063116607513096</v>
+        <v>0.04981522627320694</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0489062734933936</v>
+        <v>0.04815098319456564</v>
       </c>
       <c r="E3" t="n">
-        <v>0.05076829414557697</v>
+        <v>0.0499839736740351</v>
       </c>
       <c r="F3" t="n">
-        <v>0.04733830340317725</v>
+        <v>0.04688930007883621</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04680487315699983</v>
+        <v>0.04661235885223579</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0483120018906119</v>
+        <v>0.04715788661824954</v>
       </c>
       <c r="I3" t="n">
-        <v>0.04534993505333938</v>
+        <v>0.04532134925438309</v>
       </c>
       <c r="J3" t="n">
-        <v>0.04518639179792387</v>
+        <v>0.04505468904984604</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0455891765487587</v>
+        <v>0.04557890687093379</v>
       </c>
       <c r="L3" t="n">
-        <v>0.04686663722085748</v>
+        <v>0.04694098153863968</v>
       </c>
       <c r="M3" t="n">
-        <v>0.04675800511655175</v>
+        <v>0.04666407978586447</v>
       </c>
       <c r="N3" t="n">
-        <v>0.04699345228714984</v>
+        <v>0.04720960807018319</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Beta + Gamma</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>19.17057224531003</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.05509537454402212</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.06981341165143562</v>
+      </c>
+      <c r="F4" t="n">
+        <v>9.591098111292069</v>
+      </c>
+      <c r="G4" t="n">
+        <v>9.202407717008322</v>
+      </c>
+      <c r="H4" t="n">
+        <v>9.971944345697711</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.04753698498985089</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.0470218175618314</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.04809962053017398</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.05526146780481519</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.05475941024085258</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.05575928094384409</v>
       </c>
     </row>
   </sheetData>

--- a/results/Cs137/Cs137_R_30_cm_Nr_2000000000_ISO_model_det1_det2 - Unfolded Fluence Spectrum.xlsx
+++ b/results/Cs137/Cs137_R_30_cm_Nr_2000000000_ISO_model_det1_det2 - Unfolded Fluence Spectrum.xlsx
@@ -520,31 +520,31 @@
         <v>0.01982943797740053</v>
       </c>
       <c r="F2" t="n">
-        <v>9.546484377234801</v>
+        <v>9.54645530522332</v>
       </c>
       <c r="G2" t="n">
-        <v>9.162200494531341</v>
+        <v>9.170167643570377</v>
       </c>
       <c r="H2" t="n">
-        <v>9.92549931307336</v>
+        <v>9.933142240451385</v>
       </c>
       <c r="I2" t="n">
-        <v>0.002216561521389368</v>
+        <v>0.002217226290430173</v>
       </c>
       <c r="J2" t="n">
-        <v>0.001956041555149707</v>
+        <v>0.001960015122806</v>
       </c>
       <c r="K2" t="n">
-        <v>0.002520670837846973</v>
+        <v>0.002514946819293703</v>
       </c>
       <c r="L2" t="n">
-        <v>0.008321591987976721</v>
+        <v>0.008321064069526204</v>
       </c>
       <c r="M2" t="n">
-        <v>0.008098258791263776</v>
+        <v>0.008099617639449332</v>
       </c>
       <c r="N2" t="n">
-        <v>0.008552098719135506</v>
+        <v>0.008554356793520618</v>
       </c>
     </row>
     <row r="3">
@@ -566,31 +566,31 @@
         <v>0.0499839736740351</v>
       </c>
       <c r="F3" t="n">
-        <v>0.04688953794399951</v>
+        <v>0.04688919838484605</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04660737889861215</v>
+        <v>0.0466187969992323</v>
       </c>
       <c r="H3" t="n">
-        <v>0.04717256136837566</v>
+        <v>0.04717019893536182</v>
       </c>
       <c r="I3" t="n">
-        <v>0.04532157770825528</v>
+        <v>0.04532124684966276</v>
       </c>
       <c r="J3" t="n">
-        <v>0.04504987534063504</v>
+        <v>0.04506091196824184</v>
       </c>
       <c r="K3" t="n">
-        <v>0.04559307965288133</v>
+        <v>0.04559082519707216</v>
       </c>
       <c r="L3" t="n">
-        <v>0.04694122601682132</v>
+        <v>0.04694087289506213</v>
       </c>
       <c r="M3" t="n">
-        <v>0.04665905045443169</v>
+        <v>0.04667050585486655</v>
       </c>
       <c r="N3" t="n">
-        <v>0.04722421173418681</v>
+        <v>0.04722190739345494</v>
       </c>
     </row>
     <row r="4">
@@ -612,31 +612,31 @@
         <v>0.06981341165143562</v>
       </c>
       <c r="F4" t="n">
-        <v>9.5933739151788</v>
+        <v>9.593344503608165</v>
       </c>
       <c r="G4" t="n">
-        <v>9.208807873429951</v>
+        <v>9.216786440569606</v>
       </c>
       <c r="H4" t="n">
-        <v>9.972671874441735</v>
+        <v>9.980312439386747</v>
       </c>
       <c r="I4" t="n">
-        <v>0.04753813922964464</v>
+        <v>0.04753847314009294</v>
       </c>
       <c r="J4" t="n">
-        <v>0.04700591689578475</v>
+        <v>0.04702092709104784</v>
       </c>
       <c r="K4" t="n">
-        <v>0.04811375049072832</v>
+        <v>0.04810577201636586</v>
       </c>
       <c r="L4" t="n">
-        <v>0.05526281800479804</v>
+        <v>0.05526193696458832</v>
       </c>
       <c r="M4" t="n">
-        <v>0.05475730924569547</v>
+        <v>0.05477012349431588</v>
       </c>
       <c r="N4" t="n">
-        <v>0.05577631045332231</v>
+        <v>0.05577626418697556</v>
       </c>
     </row>
   </sheetData>
